--- a/test/tracking_towards_targets.xlsx
+++ b/test/tracking_towards_targets.xlsx
@@ -5,19 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="161" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="161" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Commentary" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>tracking towards tagets</t>
   </si>
@@ -59,6 +58,30 @@
   </si>
   <si>
     <t>pesticides</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Cane and Horticulture</t>
+  </si>
+  <si>
+    <t>Grazing</t>
+  </si>
+  <si>
+    <t>Nitrogen and Pesticide</t>
+  </si>
+  <si>
+    <t>Sediment</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>This is the **Cane and Horticulture** commentary.</t>
+  </si>
+  <si>
+    <t>_Nothing yet._</t>
   </si>
 </sst>
 </file>
@@ -71,32 +94,32 @@
   </numFmts>
   <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,10 +164,27 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+  <cellXfs count="5">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -164,13 +204,14 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.7551020408163"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -347,41 +388,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.21938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="35.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.7551020408163"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="340.25" outlineLevel="0" r="2">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>

--- a/test/tracking_towards_targets.xlsx
+++ b/test/tracking_towards_targets.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="161" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="161"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Commentary" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>tracking towards tagets</t>
   </si>
@@ -60,7 +60,22 @@
     <t>pesticides</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>TTT_CANE_AND_HORT</t>
+  </si>
+  <si>
+    <t>TTT_GRAZING</t>
+  </si>
+  <si>
+    <t>TTT_SEDIMENT</t>
+  </si>
+  <si>
+    <t>TTT_NITRO_AND_PEST</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
   <si>
     <t>Cane and Horticulture</t>
@@ -69,30 +84,29 @@
     <t>Grazing</t>
   </si>
   <si>
-    <t>Nitrogen and Pesticide</t>
-  </si>
-  <si>
     <t>Sediment</t>
   </si>
   <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>This is the **Cane and Horticulture** commentary.</t>
-  </si>
-  <si>
-    <t>_Nothing yet._</t>
+    <t>range axis title</t>
+  </si>
+  <si>
+    <t>% of farmers</t>
+  </si>
+  <si>
+    <t>% reduction</t>
+  </si>
+  <si>
+    <t>domain axis title</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0%" numFmtId="165"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,122 +114,460 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4343"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.7551020408163"/>
+    <col min="1" max="1" width="23.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="1025" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -240,143 +592,225 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>0.8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>2013</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>0.2</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>0.32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>0.8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2013</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>0.18</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>0.25</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>2013</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>0.11</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>0.16</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>2013</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>0.02</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>0.06</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>2013</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>0.04</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>0.06</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>2013</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>0.08</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>0.15</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -384,62 +818,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.21938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="35.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.7551020408163"/>
+    <col min="1" max="1025" width="11.7109375"/>
   </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="340.25" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sheetData/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1025" width="11.7109375"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
